--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_food_wholesalers.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_food_wholesalers.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.225</v>
+        <v>-0.644</v>
       </c>
       <c r="G2">
-        <v>-0.2556270096463023</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="H2">
-        <v>-0.2556270096463023</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="I2">
-        <v>-0.1688102893890675</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="J2">
-        <v>-0.1688102893890675</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="K2">
-        <v>-0.261</v>
+        <v>-0.043</v>
       </c>
       <c r="L2">
-        <v>-0.4196141479099679</v>
+        <v>-3.307692307692307</v>
       </c>
       <c r="M2">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2691588785046728</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.103448275862069</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,37 +630,34 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.288</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.17</v>
+        <v>0.026</v>
       </c>
       <c r="V2">
-        <v>0.1588785046728972</v>
+        <v>0.02113821138211382</v>
       </c>
       <c r="W2">
-        <v>-0.1775510204081633</v>
+        <v>-0.05381727158948685</v>
       </c>
       <c r="X2">
-        <v>0.14178545521435</v>
+        <v>0.1433325504561864</v>
       </c>
       <c r="Y2">
-        <v>-0.3193364756225133</v>
+        <v>-0.1971498220456732</v>
       </c>
       <c r="Z2">
-        <v>0.198595146871009</v>
+        <v>0.005110062893081761</v>
       </c>
       <c r="AA2">
-        <v>-0.03352490421455939</v>
+        <v>-0.01493710691823899</v>
       </c>
       <c r="AB2">
-        <v>0.1081354798802931</v>
+        <v>0.1038502895939482</v>
       </c>
       <c r="AC2">
-        <v>-0.1416603840948525</v>
+        <v>-0.1187873965121872</v>
       </c>
       <c r="AD2">
         <v>1.82</v>
@@ -672,31 +669,31 @@
         <v>1.82</v>
       </c>
       <c r="AG2">
-        <v>1.65</v>
+        <v>1.794</v>
       </c>
       <c r="AH2">
-        <v>0.629757785467128</v>
+        <v>0.5967213114754099</v>
       </c>
       <c r="AI2">
-        <v>0.6363636363636364</v>
+        <v>0.7315112540192926</v>
       </c>
       <c r="AJ2">
-        <v>0.6066176470588235</v>
+        <v>0.5932539682539683</v>
       </c>
       <c r="AK2">
-        <v>0.6133828996282528</v>
+        <v>0.7286758732737612</v>
       </c>
       <c r="AL2">
-        <v>0.157</v>
+        <v>0.005</v>
       </c>
       <c r="AM2">
-        <v>0.156</v>
+        <v>0.005</v>
       </c>
       <c r="AO2">
-        <v>-0.6687898089171974</v>
+        <v>-7.6</v>
       </c>
       <c r="AQ2">
-        <v>-0.673076923076923</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="3">
@@ -716,34 +713,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.225</v>
+        <v>-0.644</v>
       </c>
       <c r="G3">
-        <v>-0.2556270096463023</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="H3">
-        <v>-0.2556270096463023</v>
+        <v>-0.5384615384615385</v>
       </c>
       <c r="I3">
-        <v>-0.1688102893890675</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="J3">
-        <v>-0.1688102893890675</v>
+        <v>-2.923076923076923</v>
       </c>
       <c r="K3">
-        <v>-0.261</v>
+        <v>-0.043</v>
       </c>
       <c r="L3">
-        <v>-0.4196141479099679</v>
+        <v>-3.307692307692307</v>
       </c>
       <c r="M3">
-        <v>0.288</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.2691588785046728</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-1.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,37 +752,34 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.288</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.17</v>
+        <v>0.026</v>
       </c>
       <c r="V3">
-        <v>0.1588785046728972</v>
+        <v>0.02113821138211382</v>
       </c>
       <c r="W3">
-        <v>-0.1775510204081633</v>
+        <v>-0.05381727158948685</v>
       </c>
       <c r="X3">
-        <v>0.14178545521435</v>
+        <v>0.1433325504561864</v>
       </c>
       <c r="Y3">
-        <v>-0.3193364756225133</v>
+        <v>-0.1971498220456732</v>
       </c>
       <c r="Z3">
-        <v>0.198595146871009</v>
+        <v>0.005110062893081761</v>
       </c>
       <c r="AA3">
-        <v>-0.03352490421455939</v>
+        <v>-0.01493710691823899</v>
       </c>
       <c r="AB3">
-        <v>0.1081354798802931</v>
+        <v>0.1038502895939482</v>
       </c>
       <c r="AC3">
-        <v>-0.1416603840948525</v>
+        <v>-0.1187873965121872</v>
       </c>
       <c r="AD3">
         <v>1.82</v>
@@ -797,31 +791,31 @@
         <v>1.82</v>
       </c>
       <c r="AG3">
-        <v>1.65</v>
+        <v>1.794</v>
       </c>
       <c r="AH3">
-        <v>0.629757785467128</v>
+        <v>0.5967213114754099</v>
       </c>
       <c r="AI3">
-        <v>0.6363636363636364</v>
+        <v>0.7315112540192926</v>
       </c>
       <c r="AJ3">
-        <v>0.6066176470588235</v>
+        <v>0.5932539682539683</v>
       </c>
       <c r="AK3">
-        <v>0.6133828996282528</v>
+        <v>0.7286758732737612</v>
       </c>
       <c r="AL3">
-        <v>0.157</v>
+        <v>0.005</v>
       </c>
       <c r="AM3">
-        <v>0.156</v>
+        <v>0.005</v>
       </c>
       <c r="AO3">
-        <v>-0.6687898089171974</v>
+        <v>-7.6</v>
       </c>
       <c r="AQ3">
-        <v>-0.673076923076923</v>
+        <v>-7.6</v>
       </c>
     </row>
   </sheetData>
